--- a/Rubros - Sub-Rubros.xlsx
+++ b/Rubros - Sub-Rubros.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Rubro-Sub-Rubro" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2957,7 +2957,7 @@
   <dimension ref="A1:B887"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
